--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cthrc1-Fzd5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cthrc1-Fzd5.xlsx
@@ -537,22 +537,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.9744206666666667</v>
+        <v>0.63867</v>
       </c>
       <c r="H2">
-        <v>2.923262</v>
+        <v>1.91601</v>
       </c>
       <c r="I2">
-        <v>0.0323957296480766</v>
+        <v>0.02162993170452444</v>
       </c>
       <c r="J2">
-        <v>0.03239572964807661</v>
+        <v>0.02162993170452444</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.343367666666667</v>
+        <v>2.815739333333333</v>
       </c>
       <c r="N2">
-        <v>7.030103</v>
+        <v>8.447217999999999</v>
       </c>
       <c r="O2">
-        <v>0.07041630712807322</v>
+        <v>0.07700398964630729</v>
       </c>
       <c r="P2">
-        <v>0.07041630712807322</v>
+        <v>0.07700398964630729</v>
       </c>
       <c r="Q2">
-        <v>2.283425883998444</v>
+        <v>1.79832824002</v>
       </c>
       <c r="R2">
-        <v>20.550832955986</v>
+        <v>16.18495416018</v>
       </c>
       <c r="S2">
-        <v>0.002281187648536989</v>
+        <v>0.001665591037025534</v>
       </c>
       <c r="T2">
-        <v>0.00228118764853699</v>
+        <v>0.001665591037025534</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.9744206666666667</v>
+        <v>0.63867</v>
       </c>
       <c r="H3">
-        <v>2.923262</v>
+        <v>1.91601</v>
       </c>
       <c r="I3">
-        <v>0.0323957296480766</v>
+        <v>0.02162993170452444</v>
       </c>
       <c r="J3">
-        <v>0.03239572964807661</v>
+        <v>0.02162993170452444</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>14.527783</v>
       </c>
       <c r="O3">
-        <v>0.1455160514174545</v>
+        <v>0.1324338085883186</v>
       </c>
       <c r="P3">
-        <v>0.1455160514174545</v>
+        <v>0.1324338085883186</v>
       </c>
       <c r="Q3">
-        <v>4.718723998682889</v>
+        <v>3.09281972287</v>
       </c>
       <c r="R3">
-        <v>42.468515988146</v>
+        <v>27.83537750583</v>
       </c>
       <c r="S3">
-        <v>0.004714098661175469</v>
+        <v>0.002864534235135393</v>
       </c>
       <c r="T3">
-        <v>0.00471409866117547</v>
+        <v>0.002864534235135393</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,22 +661,22 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.9744206666666667</v>
+        <v>0.63867</v>
       </c>
       <c r="H4">
-        <v>2.923262</v>
+        <v>1.91601</v>
       </c>
       <c r="I4">
-        <v>0.0323957296480766</v>
+        <v>0.02162993170452444</v>
       </c>
       <c r="J4">
-        <v>0.03239572964807661</v>
+        <v>0.02162993170452444</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.196962666666667</v>
+        <v>5.537790999999999</v>
       </c>
       <c r="N4">
-        <v>12.590888</v>
+        <v>16.613373</v>
       </c>
       <c r="O4">
-        <v>0.1261153409022843</v>
+        <v>0.1514458372546134</v>
       </c>
       <c r="P4">
-        <v>0.1261153409022843</v>
+        <v>0.1514458372546134</v>
       </c>
       <c r="Q4">
-        <v>4.089607159628445</v>
+        <v>3.536820977969999</v>
       </c>
       <c r="R4">
-        <v>36.806464436656</v>
+        <v>31.83138880173</v>
       </c>
       <c r="S4">
-        <v>0.004085598488345419</v>
+        <v>0.003275763116751811</v>
       </c>
       <c r="T4">
-        <v>0.004085598488345421</v>
+        <v>0.003275763116751812</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,22 +723,22 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.9744206666666667</v>
+        <v>0.63867</v>
       </c>
       <c r="H5">
-        <v>2.923262</v>
+        <v>1.91601</v>
       </c>
       <c r="I5">
-        <v>0.0323957296480766</v>
+        <v>0.02162993170452444</v>
       </c>
       <c r="J5">
-        <v>0.03239572964807661</v>
+        <v>0.02162993170452444</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.828011333333333</v>
+        <v>1.188595666666667</v>
       </c>
       <c r="N5">
-        <v>5.484033999999999</v>
+        <v>3.565787</v>
       </c>
       <c r="O5">
-        <v>0.05493026523861683</v>
+        <v>0.03250535563648733</v>
       </c>
       <c r="P5">
-        <v>0.05493026523861682</v>
+        <v>0.03250535563648733</v>
       </c>
       <c r="Q5">
-        <v>1.781252022100889</v>
+        <v>0.75912039443</v>
       </c>
       <c r="R5">
-        <v>16.031268198908</v>
+        <v>6.83208354987</v>
       </c>
       <c r="S5">
-        <v>0.001779506022167371</v>
+        <v>0.0007030886224484994</v>
       </c>
       <c r="T5">
-        <v>0.001779506022167371</v>
+        <v>0.0007030886224484995</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,22 +785,22 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.9744206666666667</v>
+        <v>0.63867</v>
       </c>
       <c r="H6">
-        <v>2.923262</v>
+        <v>1.91601</v>
       </c>
       <c r="I6">
-        <v>0.0323957296480766</v>
+        <v>0.02162993170452444</v>
       </c>
       <c r="J6">
-        <v>0.03239572964807661</v>
+        <v>0.02162993170452444</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>15.01164366666667</v>
+        <v>18.85109966666667</v>
       </c>
       <c r="N6">
-        <v>45.034931</v>
+        <v>56.553299</v>
       </c>
       <c r="O6">
-        <v>0.451087776777607</v>
+        <v>0.5155341854158992</v>
       </c>
       <c r="P6">
-        <v>0.451087776777607</v>
+        <v>0.5155341854158992</v>
       </c>
       <c r="Q6">
-        <v>14.62765582943578</v>
+        <v>12.03963182411</v>
       </c>
       <c r="R6">
-        <v>131.648902464922</v>
+        <v>108.35668641699</v>
       </c>
       <c r="S6">
-        <v>0.01461331766403929</v>
+        <v>0.01115096922189354</v>
       </c>
       <c r="T6">
-        <v>0.01461331766403929</v>
+        <v>0.01115096922189354</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,22 +847,22 @@
         <v>27</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.9744206666666667</v>
+        <v>0.63867</v>
       </c>
       <c r="H7">
-        <v>2.923262</v>
+        <v>1.91601</v>
       </c>
       <c r="I7">
-        <v>0.0323957296480766</v>
+        <v>0.02162993170452444</v>
       </c>
       <c r="J7">
-        <v>0.03239572964807661</v>
+        <v>0.02162993170452444</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.056184333333333</v>
+        <v>3.330328666666666</v>
       </c>
       <c r="N7">
-        <v>15.168553</v>
+        <v>9.990985999999999</v>
       </c>
       <c r="O7">
-        <v>0.151934258535964</v>
+        <v>0.09107682345837424</v>
       </c>
       <c r="P7">
-        <v>0.151934258535964</v>
+        <v>0.09107682345837424</v>
       </c>
       <c r="Q7">
-        <v>4.926850508876223</v>
+        <v>2.12698100954</v>
       </c>
       <c r="R7">
-        <v>44.341654579886</v>
+        <v>19.14282908586</v>
       </c>
       <c r="S7">
-        <v>0.004922021163812066</v>
+        <v>0.001969985471269664</v>
       </c>
       <c r="T7">
-        <v>0.004922021163812068</v>
+        <v>0.001969985471269664</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>84.06461399999999</v>
       </c>
       <c r="I8">
-        <v>0.9316080830640275</v>
+        <v>0.9490095874171892</v>
       </c>
       <c r="J8">
-        <v>0.9316080830640276</v>
+        <v>0.9490095874171893</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.343367666666667</v>
+        <v>2.815739333333333</v>
       </c>
       <c r="N8">
-        <v>7.030103</v>
+        <v>8.447217999999999</v>
       </c>
       <c r="O8">
-        <v>0.07041630712807322</v>
+        <v>0.07700398964630729</v>
       </c>
       <c r="P8">
-        <v>0.07041630712807322</v>
+        <v>0.07700398964630729</v>
       </c>
       <c r="Q8">
-        <v>65.66476611947132</v>
+        <v>78.90134672709465</v>
       </c>
       <c r="R8">
-        <v>590.9828950752419</v>
+        <v>710.1121205438519</v>
       </c>
       <c r="S8">
-        <v>0.06560040090003211</v>
+        <v>0.07307752444371959</v>
       </c>
       <c r="T8">
-        <v>0.06560040090003212</v>
+        <v>0.07307752444371961</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>84.06461399999999</v>
       </c>
       <c r="I9">
-        <v>0.9316080830640275</v>
+        <v>0.9490095874171892</v>
       </c>
       <c r="J9">
-        <v>0.9316080830640276</v>
+        <v>0.9490095874171893</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>14.527783</v>
       </c>
       <c r="O9">
-        <v>0.1455160514174545</v>
+        <v>0.1324338085883186</v>
       </c>
       <c r="P9">
-        <v>0.1455160514174545</v>
+        <v>0.1324338085883186</v>
       </c>
       <c r="Q9">
         <v>135.6969411300846</v>
@@ -1013,10 +1013,10 @@
         <v>1221.272470170762</v>
       </c>
       <c r="S9">
-        <v>0.1355639297160612</v>
+        <v>0.1256809540484872</v>
       </c>
       <c r="T9">
-        <v>0.1355639297160612</v>
+        <v>0.1256809540484872</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>84.06461399999999</v>
       </c>
       <c r="I10">
-        <v>0.9316080830640275</v>
+        <v>0.9490095874171892</v>
       </c>
       <c r="J10">
-        <v>0.9316080830640276</v>
+        <v>0.9490095874171893</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.196962666666667</v>
+        <v>5.537790999999999</v>
       </c>
       <c r="N10">
-        <v>12.590888</v>
+        <v>16.613373</v>
       </c>
       <c r="O10">
-        <v>0.1261153409022843</v>
+        <v>0.1514458372546134</v>
       </c>
       <c r="P10">
-        <v>0.1261153409022843</v>
+        <v>0.1514458372546134</v>
       </c>
       <c r="Q10">
-        <v>117.6053488485813</v>
+        <v>155.177420942558</v>
       </c>
       <c r="R10">
-        <v>1058.448139637232</v>
+        <v>1396.596788483022</v>
       </c>
       <c r="S10">
-        <v>0.1174900709829434</v>
+        <v>0.1437235515290515</v>
       </c>
       <c r="T10">
-        <v>0.1174900709829434</v>
+        <v>0.1437235515290515</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>84.06461399999999</v>
       </c>
       <c r="I11">
-        <v>0.9316080830640275</v>
+        <v>0.9490095874171892</v>
       </c>
       <c r="J11">
-        <v>0.9316080830640276</v>
+        <v>0.9490095874171893</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.828011333333333</v>
+        <v>1.188595666666667</v>
       </c>
       <c r="N11">
-        <v>5.484033999999999</v>
+        <v>3.565787</v>
       </c>
       <c r="O11">
-        <v>0.05493026523861683</v>
+        <v>0.03250535563648733</v>
       </c>
       <c r="P11">
-        <v>0.05493026523861682</v>
+        <v>0.03250535563648733</v>
       </c>
       <c r="Q11">
-        <v>51.22368904143065</v>
+        <v>33.30627864013533</v>
       </c>
       <c r="R11">
-        <v>461.0132013728759</v>
+        <v>299.756507761218</v>
       </c>
       <c r="S11">
-        <v>0.05117347910114641</v>
+        <v>0.03084789414143185</v>
       </c>
       <c r="T11">
-        <v>0.05117347910114641</v>
+        <v>0.03084789414143185</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>84.06461399999999</v>
       </c>
       <c r="I12">
-        <v>0.9316080830640275</v>
+        <v>0.9490095874171892</v>
       </c>
       <c r="J12">
-        <v>0.9316080830640276</v>
+        <v>0.9490095874171893</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>15.01164366666667</v>
+        <v>18.85109966666667</v>
       </c>
       <c r="N12">
-        <v>45.034931</v>
+        <v>56.553299</v>
       </c>
       <c r="O12">
-        <v>0.451087776777607</v>
+        <v>0.5155341854158992</v>
       </c>
       <c r="P12">
-        <v>0.451087776777607</v>
+        <v>0.5155341854158992</v>
       </c>
       <c r="Q12">
-        <v>420.6493434479593</v>
+        <v>528.2368056512872</v>
       </c>
       <c r="R12">
-        <v>3785.844091031634</v>
+        <v>4754.131250861586</v>
       </c>
       <c r="S12">
-        <v>0.4202370190174005</v>
+        <v>0.4892468846009992</v>
       </c>
       <c r="T12">
-        <v>0.4202370190174005</v>
+        <v>0.4892468846009993</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>84.06461399999999</v>
       </c>
       <c r="I13">
-        <v>0.9316080830640275</v>
+        <v>0.9490095874171892</v>
       </c>
       <c r="J13">
-        <v>0.9316080830640276</v>
+        <v>0.9490095874171893</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.056184333333333</v>
+        <v>3.330328666666666</v>
       </c>
       <c r="N13">
-        <v>15.168553</v>
+        <v>9.990985999999999</v>
       </c>
       <c r="O13">
-        <v>0.151934258535964</v>
+        <v>0.09107682345837424</v>
       </c>
       <c r="P13">
-        <v>0.151934258535964</v>
+        <v>0.09107682345837424</v>
       </c>
       <c r="Q13">
-        <v>141.6820614315046</v>
+        <v>93.32093128548931</v>
       </c>
       <c r="R13">
-        <v>1275.138552883542</v>
+        <v>839.8883815694039</v>
       </c>
       <c r="S13">
-        <v>0.1415431833464438</v>
+        <v>0.08643277865349992</v>
       </c>
       <c r="T13">
-        <v>0.1415431833464438</v>
+        <v>0.08643277865349994</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.082717666666667</v>
+        <v>0.866931</v>
       </c>
       <c r="H14">
-        <v>3.248153</v>
+        <v>2.600793</v>
       </c>
       <c r="I14">
-        <v>0.03599618728789584</v>
+        <v>0.02936048087828625</v>
       </c>
       <c r="J14">
-        <v>0.03599618728789584</v>
+        <v>0.02936048087828625</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.343367666666667</v>
+        <v>2.815739333333333</v>
       </c>
       <c r="N14">
-        <v>7.030103</v>
+        <v>8.447217999999999</v>
       </c>
       <c r="O14">
-        <v>0.07041630712807322</v>
+        <v>0.07700398964630729</v>
       </c>
       <c r="P14">
-        <v>0.07041630712807322</v>
+        <v>0.07700398964630729</v>
       </c>
       <c r="Q14">
-        <v>2.537205572195445</v>
+        <v>2.441051715986</v>
       </c>
       <c r="R14">
-        <v>22.834850149759</v>
+        <v>21.969465443874</v>
       </c>
       <c r="S14">
-        <v>0.002534718579504118</v>
+        <v>0.002260874165562157</v>
       </c>
       <c r="T14">
-        <v>0.002534718579504118</v>
+        <v>0.002260874165562157</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.082717666666667</v>
+        <v>0.866931</v>
       </c>
       <c r="H15">
-        <v>3.248153</v>
+        <v>2.600793</v>
       </c>
       <c r="I15">
-        <v>0.03599618728789584</v>
+        <v>0.02936048087828625</v>
       </c>
       <c r="J15">
-        <v>0.03599618728789584</v>
+        <v>0.02936048087828625</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>14.527783</v>
       </c>
       <c r="O15">
-        <v>0.1455160514174545</v>
+        <v>0.1324338085883186</v>
       </c>
       <c r="P15">
-        <v>0.1455160514174545</v>
+        <v>0.1324338085883186</v>
       </c>
       <c r="Q15">
-        <v>5.24316243719989</v>
+        <v>4.198195147991</v>
       </c>
       <c r="R15">
-        <v>47.18846193479899</v>
+        <v>37.78375633191899</v>
       </c>
       <c r="S15">
-        <v>0.005238023040217771</v>
+        <v>0.003888320304695948</v>
       </c>
       <c r="T15">
-        <v>0.005238023040217771</v>
+        <v>0.003888320304695948</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.082717666666667</v>
+        <v>0.866931</v>
       </c>
       <c r="H16">
-        <v>3.248153</v>
+        <v>2.600793</v>
       </c>
       <c r="I16">
-        <v>0.03599618728789584</v>
+        <v>0.02936048087828625</v>
       </c>
       <c r="J16">
-        <v>0.03599618728789584</v>
+        <v>0.02936048087828625</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.196962666666667</v>
+        <v>5.537790999999999</v>
       </c>
       <c r="N16">
-        <v>12.590888</v>
+        <v>16.613373</v>
       </c>
       <c r="O16">
-        <v>0.1261153409022843</v>
+        <v>0.1514458372546134</v>
       </c>
       <c r="P16">
-        <v>0.1261153409022843</v>
+        <v>0.1514458372546134</v>
       </c>
       <c r="Q16">
-        <v>4.544125625540445</v>
+        <v>4.800882689421</v>
       </c>
       <c r="R16">
-        <v>40.89713062986399</v>
+        <v>43.20794420478899</v>
       </c>
       <c r="S16">
-        <v>0.004539671430995456</v>
+        <v>0.004446522608810129</v>
       </c>
       <c r="T16">
-        <v>0.004539671430995456</v>
+        <v>0.004446522608810129</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.082717666666667</v>
+        <v>0.866931</v>
       </c>
       <c r="H17">
-        <v>3.248153</v>
+        <v>2.600793</v>
       </c>
       <c r="I17">
-        <v>0.03599618728789584</v>
+        <v>0.02936048087828625</v>
       </c>
       <c r="J17">
-        <v>0.03599618728789584</v>
+        <v>0.02936048087828625</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.828011333333333</v>
+        <v>1.188595666666667</v>
       </c>
       <c r="N17">
-        <v>5.484033999999999</v>
+        <v>3.565787</v>
       </c>
       <c r="O17">
-        <v>0.05493026523861683</v>
+        <v>0.03250535563648733</v>
       </c>
       <c r="P17">
-        <v>0.05493026523861682</v>
+        <v>0.03250535563648733</v>
       </c>
       <c r="Q17">
-        <v>1.979220165466889</v>
+        <v>1.030430429899</v>
       </c>
       <c r="R17">
-        <v>17.812981489202</v>
+        <v>9.273873869091</v>
       </c>
       <c r="S17">
-        <v>0.001977280115303046</v>
+        <v>0.0009543728726069803</v>
       </c>
       <c r="T17">
-        <v>0.001977280115303045</v>
+        <v>0.0009543728726069803</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.082717666666667</v>
+        <v>0.866931</v>
       </c>
       <c r="H18">
-        <v>3.248153</v>
+        <v>2.600793</v>
       </c>
       <c r="I18">
-        <v>0.03599618728789584</v>
+        <v>0.02936048087828625</v>
       </c>
       <c r="J18">
-        <v>0.03599618728789584</v>
+        <v>0.02936048087828625</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>15.01164366666667</v>
+        <v>18.85109966666667</v>
       </c>
       <c r="N18">
-        <v>45.034931</v>
+        <v>56.553299</v>
       </c>
       <c r="O18">
-        <v>0.451087776777607</v>
+        <v>0.5155341854158992</v>
       </c>
       <c r="P18">
-        <v>0.451087776777607</v>
+        <v>0.5155341854158992</v>
       </c>
       <c r="Q18">
-        <v>16.25337180360478</v>
+        <v>16.342602685123</v>
       </c>
       <c r="R18">
-        <v>146.280346232443</v>
+        <v>147.083424166107</v>
       </c>
       <c r="S18">
-        <v>0.0162374400961673</v>
+        <v>0.01513633159300639</v>
       </c>
       <c r="T18">
-        <v>0.0162374400961673</v>
+        <v>0.01513633159300639</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.082717666666667</v>
+        <v>0.866931</v>
       </c>
       <c r="H19">
-        <v>3.248153</v>
+        <v>2.600793</v>
       </c>
       <c r="I19">
-        <v>0.03599618728789584</v>
+        <v>0.02936048087828625</v>
       </c>
       <c r="J19">
-        <v>0.03599618728789584</v>
+        <v>0.02936048087828625</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>5.056184333333333</v>
+        <v>3.330328666666666</v>
       </c>
       <c r="N19">
-        <v>15.168553</v>
+        <v>9.990985999999999</v>
       </c>
       <c r="O19">
-        <v>0.151934258535964</v>
+        <v>0.09107682345837424</v>
       </c>
       <c r="P19">
-        <v>0.151934258535964</v>
+        <v>0.09107682345837424</v>
       </c>
       <c r="Q19">
-        <v>5.474420103623222</v>
+        <v>2.887165161322</v>
       </c>
       <c r="R19">
-        <v>49.269780932609</v>
+        <v>25.984486451898</v>
       </c>
       <c r="S19">
-        <v>0.005469054025708148</v>
+        <v>0.002674059333604649</v>
       </c>
       <c r="T19">
-        <v>0.005469054025708148</v>
+        <v>0.002674059333604649</v>
       </c>
     </row>
   </sheetData>
